--- a/admin/data/Posts.xlsx
+++ b/admin/data/Posts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Craft\Documents\java\theatertage\admin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\OneDrive\Dokumente\GitHub\theatertage\admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D7E7B-F858-4700-9220-02F167022850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9200F2B-F820-42E9-90F1-7946B4BFC906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34875" yWindow="3180" windowWidth="28800" windowHeight="15435" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="35314" windowHeight="18720" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Newsletter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
   <si>
     <t>img1</t>
   </si>
@@ -74,18 +74,6 @@
     <t>sum</t>
   </si>
   <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
     <t>i1</t>
   </si>
   <si>
@@ -123,6 +111,45 @@
   </si>
   <si>
     <t>summary 1</t>
+  </si>
+  <si>
+    <t>head1</t>
+  </si>
+  <si>
+    <t>head2</t>
+  </si>
+  <si>
+    <t>head3</t>
+  </si>
+  <si>
+    <t>head4</t>
+  </si>
+  <si>
+    <t>Mini-Headline1</t>
+  </si>
+  <si>
+    <t>Mini-Headline2</t>
+  </si>
+  <si>
+    <t>Mini-Headline3</t>
+  </si>
+  <si>
+    <t>Mini-Headline4</t>
+  </si>
+  <si>
+    <t>author1</t>
+  </si>
+  <si>
+    <t>author2</t>
+  </si>
+  <si>
+    <t>author3</t>
+  </si>
+  <si>
+    <t>author4</t>
+  </si>
+  <si>
+    <t>Anonym</t>
   </si>
 </sst>
 </file>
@@ -169,7 +196,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,18 +528,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99764E3C-1248-44C0-80ED-9F1AB2E0971D}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -532,22 +559,46 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>45314</v>
       </c>
@@ -555,174 +606,294 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>45315</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>45316</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>45317</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>45318</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="H7" s="1"/>
     </row>
   </sheetData>

--- a/admin/data/Posts.xlsx
+++ b/admin/data/Posts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\OneDrive\Dokumente\GitHub\theatertage\admin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\Documents\GitHub\theatertage\admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9200F2B-F820-42E9-90F1-7946B4BFC906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7799149-C4FF-41FF-A726-E659A30D93DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="35314" windowHeight="18720" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Newsletter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>img1</t>
   </si>
@@ -53,9 +53,6 @@
     <t>headline</t>
   </si>
   <si>
-    <t>Erster Test Artikel</t>
-  </si>
-  <si>
     <t>img4</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>summary 5</t>
   </si>
   <si>
-    <t>summary 1</t>
-  </si>
-  <si>
     <t>head1</t>
   </si>
   <si>
@@ -150,6 +144,51 @@
   </si>
   <si>
     <t>Anonym</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>2.png</t>
+  </si>
+  <si>
+    <t>3.webp</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>Wer nutzt TikTok?</t>
+  </si>
+  <si>
+    <t>TikTok - eine digitale Droge</t>
+  </si>
+  <si>
+    <t>Ist TikTok schädlich für unsere Gesellschaft?</t>
+  </si>
+  <si>
+    <t>Warum ist TikTok so beliebt?</t>
+  </si>
+  <si>
+    <t>Wer möchte nicht berühmt werden? Aber….</t>
+  </si>
+  <si>
+    <t>~Schülerzeitung GMG</t>
+  </si>
+  <si>
+    <t>Das offizielle Mindestalter liegt eigentlich bei 13 Jahren, jedoch haben viele Kinder unter 13 schon Zugang zu TikTok. Der Großteil der TikTok-Nutzer ist unter 23 Jahren. Besonders diese jungen Zielgruppen bieten für TikTok großes Potential für digitales Marketing und damit Profit.</t>
+  </si>
+  <si>
+    <t>Seit 2018 ist TikTok weltweit die meistgedownloadete App. TikTok hat mehr als 2,6 Milliarden Downloads und ist somit die Nummer 1 im Bereich Unterhaltung. Aber wieso eigentlich? Ganz einfach: Ein kurzer Griff zum Handy, einmal auf das App-Logo getippt und schon bist du drin. TikTok macht das ziemlich raffiniert, denn nur jedes fünfte bis zehnte Video ist ein „Banger“, also ein Video, das dir besonders gefällt und dich glücklich macht. Alle Videos, die dazwischen kommen, sind uninteressant für dich, weshalb du sie skippst. Wenn du dann mal einen „Banger“ gesehen hast, bist du drin. Nun willst du immer und immer mehr Banger sehen, also skippst du immer mehr langweilige Videos und suchst nach Bangern. Diese Skipp-Videos sind für dich sozusagen eine Art Aufforderung, weiter zu scrollen. Bei den Bangern bekommst du dann ein Dopamine -High, was so viel bedeutet wie, dass Glücksbotenstoffe dein Hirn fluten. Dieses Scrollen wird damit zu einer Sucht, die funktioniert wie eine Spielsucht. Es ist der identische Mechanismus, den TikTok verwendet. TikTok-Nutzer können sehr schnell abhängig und süchtig werden, was TikTok ausnutzt. Abhängige weisen suchtähnliche Verhaltensweisen auf, indem sie ängstlich, nervös oder reizbar werden, wenn man ihnen den Zugang zur Plattform verwehrt. Selbst ohne Abhängigkeit verbringst du sehr viel Zeit auf der App und verschwendest somit Lebenszeit.</t>
+  </si>
+  <si>
+    <t>Mit TikTok kann man z.B. Musikclips von anderen ansehen oder selbst aufnehmen, bearbeiten und hochladen. Vor allem das Bearbeiten löst bei den meisten Nutzern viel Freude aus. Hier hast du eine große Auswahl an Spezialeffekten und Filtern, die du für deinem Video anwenden kannst.</t>
+  </si>
+  <si>
+    <t>Vor allem junge Mädchen möchten damit viele Follower generieren, weshalb sie sich manchmal sogar knapp bekleidet filmen oder provokante Tanzvideos veröffentlichen. Damit werden gerade Männer angesprochen, die den Mädchen dann oft folgen und sie kontaktieren. Die Mädchen fühlen sich geschmeichelt und unterschätzen die Gefahr dieser Kontakte. Und das tun sie alles nur, um Follower zu bekommen.</t>
+  </si>
+  <si>
+    <t>Die Nutzung der App ist aus der Sicht von Experten aus weiteren Gründen problematisch. Nicht nur, weil TikTok sehr viele Daten über seine Nutzer sammelt, sondern auch, weil eine übermäßige Nutzung der Plattform zu massivem Suchtverhalten führen kann, welches den gesamten Alltag von Jugendlichen beherrschen kann. \n So wird beispielsweise die Kapazität deines Arbeitsgedächtnisses durch TikTok-Nutzern reduziert. Das bedeutet, dass man dadurch aktiv „verdummt“. Deshalb hat man oft keine Lust mehr, über einen längeren Zeitraum etwas anderes zu tun oder sich zu konzentrieren. Man kann/will z.B. Konversationen nicht mehr aufmerksam zuhören. Das alles funktioniert, weil die Nutzer durch TikTok kurzfristige positive Rückmeldungen bekommen, wie bei einer Art Belohnung. Dabei sind es im wirklichen Leben die langfristigen Belohnungen, die einen glücklich machen, z.B. mit der Familie etwas zu unternehmen. \n Nicht nur die Art, wie TikTok seine User an sich bindet, kann schädlich sein, sondern auch, welcher Content auf den Nutzer zugeschnitten wird. Ein großer Nachteil ist zudem, dass bei süchtigen TikTok-Nutzern Depressionen, Angst und Stress auftreten können. Wenn man z.B. schon solche Tendenzen zeigt, werden Stimmungen wie Traurigkeit durch thematisch zugeschnittene Videos auf TikTok zusätzlich unterstützt. Damit ist TikTok nicht nur für die mentale Gesundheit des Einzelnen, sondern auch für uns als Gesellschaft eine große Gefahr. \n Dass TikTok weiterreichende Auswirkungen auf unsere Jugend, unsere Psyche und unsere Gesellschaft hat, sollte dir spätestens jetzt bewusst sein. Was hältst du von TikTok? Schreib‘ uns deine Meinung: schuelerzeitung@gmg.amberg.de</t>
   </si>
 </sst>
 </file>
@@ -196,7 +235,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,15 +570,15 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -556,344 +595,344 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45314</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45315</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
       <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45316</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
       <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>9</v>
       </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45317</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
       <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>9</v>
       </c>
-      <c r="N5" t="s">
-        <v>10</v>
-      </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45318</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
       <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" t="s">
-        <v>10</v>
-      </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
     </row>
   </sheetData>

--- a/admin/data/Posts.xlsx
+++ b/admin/data/Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\Documents\GitHub\theatertage\admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7799149-C4FF-41FF-A726-E659A30D93DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1324166C-EDC9-4B87-BB92-732927C7F575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>img1</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Die Nutzung der App ist aus der Sicht von Experten aus weiteren Gründen problematisch. Nicht nur, weil TikTok sehr viele Daten über seine Nutzer sammelt, sondern auch, weil eine übermäßige Nutzung der Plattform zu massivem Suchtverhalten führen kann, welches den gesamten Alltag von Jugendlichen beherrschen kann. \n So wird beispielsweise die Kapazität deines Arbeitsgedächtnisses durch TikTok-Nutzern reduziert. Das bedeutet, dass man dadurch aktiv „verdummt“. Deshalb hat man oft keine Lust mehr, über einen längeren Zeitraum etwas anderes zu tun oder sich zu konzentrieren. Man kann/will z.B. Konversationen nicht mehr aufmerksam zuhören. Das alles funktioniert, weil die Nutzer durch TikTok kurzfristige positive Rückmeldungen bekommen, wie bei einer Art Belohnung. Dabei sind es im wirklichen Leben die langfristigen Belohnungen, die einen glücklich machen, z.B. mit der Familie etwas zu unternehmen. \n Nicht nur die Art, wie TikTok seine User an sich bindet, kann schädlich sein, sondern auch, welcher Content auf den Nutzer zugeschnitten wird. Ein großer Nachteil ist zudem, dass bei süchtigen TikTok-Nutzern Depressionen, Angst und Stress auftreten können. Wenn man z.B. schon solche Tendenzen zeigt, werden Stimmungen wie Traurigkeit durch thematisch zugeschnittene Videos auf TikTok zusätzlich unterstützt. Damit ist TikTok nicht nur für die mentale Gesundheit des Einzelnen, sondern auch für uns als Gesellschaft eine große Gefahr. \n Dass TikTok weiterreichende Auswirkungen auf unsere Jugend, unsere Psyche und unsere Gesellschaft hat, sollte dir spätestens jetzt bewusst sein. Was hältst du von TikTok? Schreib‘ uns deine Meinung: schuelerzeitung@gmg.amberg.de</t>
+  </si>
+  <si>
+    <t>author5</t>
   </si>
 </sst>
 </file>
@@ -567,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99764E3C-1248-44C0-80ED-9F1AB2E0971D}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +581,7 @@
     <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -636,8 +639,11 @@
       <c r="S1" t="s">
         <v>10</v>
       </c>
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45314</v>
       </c>
@@ -695,8 +701,11 @@
       <c r="S2" t="s">
         <v>50</v>
       </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45315</v>
       </c>
@@ -754,8 +763,11 @@
       <c r="S3" t="s">
         <v>19</v>
       </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45316</v>
       </c>
@@ -813,8 +825,11 @@
       <c r="S4" t="s">
         <v>20</v>
       </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45317</v>
       </c>
@@ -872,8 +887,11 @@
       <c r="S5" t="s">
         <v>21</v>
       </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45318</v>
       </c>
@@ -931,8 +949,11 @@
       <c r="S6" t="s">
         <v>22</v>
       </c>
+      <c r="T6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
     </row>
   </sheetData>

--- a/admin/data/Posts.xlsx
+++ b/admin/data/Posts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\Documents\GitHub\theatertage\admin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\OneDrive\Dokumente\GitHub\theatertage\admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1324166C-EDC9-4B87-BB92-732927C7F575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554B04CB-97AC-405A-AA4C-14D87A228297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="35314" windowHeight="18720" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Newsletter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>img1</t>
   </si>
@@ -188,10 +188,19 @@
     <t>Vor allem junge Mädchen möchten damit viele Follower generieren, weshalb sie sich manchmal sogar knapp bekleidet filmen oder provokante Tanzvideos veröffentlichen. Damit werden gerade Männer angesprochen, die den Mädchen dann oft folgen und sie kontaktieren. Die Mädchen fühlen sich geschmeichelt und unterschätzen die Gefahr dieser Kontakte. Und das tun sie alles nur, um Follower zu bekommen.</t>
   </si>
   <si>
-    <t>Die Nutzung der App ist aus der Sicht von Experten aus weiteren Gründen problematisch. Nicht nur, weil TikTok sehr viele Daten über seine Nutzer sammelt, sondern auch, weil eine übermäßige Nutzung der Plattform zu massivem Suchtverhalten führen kann, welches den gesamten Alltag von Jugendlichen beherrschen kann. \n So wird beispielsweise die Kapazität deines Arbeitsgedächtnisses durch TikTok-Nutzern reduziert. Das bedeutet, dass man dadurch aktiv „verdummt“. Deshalb hat man oft keine Lust mehr, über einen längeren Zeitraum etwas anderes zu tun oder sich zu konzentrieren. Man kann/will z.B. Konversationen nicht mehr aufmerksam zuhören. Das alles funktioniert, weil die Nutzer durch TikTok kurzfristige positive Rückmeldungen bekommen, wie bei einer Art Belohnung. Dabei sind es im wirklichen Leben die langfristigen Belohnungen, die einen glücklich machen, z.B. mit der Familie etwas zu unternehmen. \n Nicht nur die Art, wie TikTok seine User an sich bindet, kann schädlich sein, sondern auch, welcher Content auf den Nutzer zugeschnitten wird. Ein großer Nachteil ist zudem, dass bei süchtigen TikTok-Nutzern Depressionen, Angst und Stress auftreten können. Wenn man z.B. schon solche Tendenzen zeigt, werden Stimmungen wie Traurigkeit durch thematisch zugeschnittene Videos auf TikTok zusätzlich unterstützt. Damit ist TikTok nicht nur für die mentale Gesundheit des Einzelnen, sondern auch für uns als Gesellschaft eine große Gefahr. \n Dass TikTok weiterreichende Auswirkungen auf unsere Jugend, unsere Psyche und unsere Gesellschaft hat, sollte dir spätestens jetzt bewusst sein. Was hältst du von TikTok? Schreib‘ uns deine Meinung: schuelerzeitung@gmg.amberg.de</t>
-  </si>
-  <si>
     <t>author5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So wird beispielsweise die Kapazität deines Arbeitsgedächtnisses durch TikTok-Nutzern reduziert. Das bedeutet, dass man dadurch aktiv „verdummt“. Deshalb hat man oft keine Lust mehr, über einen längeren Zeitraum etwas anderes zu tun oder sich zu konzentrieren. Man kann/will z.B. Konversationen nicht mehr aufmerksam zuhören. Das alles funktioniert, weil die Nutzer durch TikTok kurzfristige positive Rückmeldungen bekommen, wie bei einer Art Belohnung. Dabei sind es im wirklichen Leben die langfristigen Belohnungen, die einen glücklich machen, z.B. mit der Familie etwas zu unternehmen. </t>
+  </si>
+  <si>
+    <t>Nicht nur die Art, wie TikTok seine User an sich bindet, kann schädlich sein, sondern auch, welcher Content auf den Nutzer zugeschnitten wird. Ein großer Nachteil ist zudem, dass bei süchtigen TikTok-Nutzern Depressionen, Angst und Stress auftreten können. Wenn man z.B. schon solche Tendenzen zeigt, werden Stimmungen wie Traurigkeit durch thematisch zugeschnittene Videos auf TikTok zusätzlich unterstützt. Damit ist TikTok nicht nur für die mentale Gesundheit des Einzelnen, sondern auch für uns als Gesellschaft eine große Gefahr.</t>
+  </si>
+  <si>
+    <t>Dass TikTok weiterreichende Auswirkungen auf unsere Jugend, unsere Psyche und unsere Gesellschaft hat, sollte dir spätestens jetzt bewusst sein. Was hältst du von TikTok? Schreib‘ uns deine Meinung: schuelerzeitung@gmg.amberg.de</t>
+  </si>
+  <si>
+    <t>Die Nutzung der App ist aus der Sicht von Experten aus weiteren Gründen problematisch. Nicht nur, weil TikTok sehr viele Daten über seine Nutzer sammelt, sondern auch, weil eine übermäßige Nutzung der Plattform zu massivem Suchtverhalten führen kann, welches den gesamten Alltag von Jugendlichen beherrschen kann.</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,18 +579,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99764E3C-1248-44C0-80ED-9F1AB2E0971D}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -637,13 +646,13 @@
         <v>34</v>
       </c>
       <c r="S1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>45314</v>
       </c>
@@ -699,13 +708,22 @@
         <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>45315</v>
       </c>
@@ -761,13 +779,13 @@
         <v>35</v>
       </c>
       <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
         <v>19</v>
       </c>
-      <c r="T3" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>45316</v>
       </c>
@@ -823,13 +841,13 @@
         <v>35</v>
       </c>
       <c r="S4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
         <v>20</v>
       </c>
-      <c r="T4" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>45317</v>
       </c>
@@ -885,13 +903,13 @@
         <v>35</v>
       </c>
       <c r="S5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" t="s">
         <v>21</v>
       </c>
-      <c r="T5" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>45318</v>
       </c>
@@ -947,13 +965,13 @@
         <v>35</v>
       </c>
       <c r="S6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" t="s">
         <v>22</v>
       </c>
-      <c r="T6" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="H7" s="1"/>
     </row>
   </sheetData>

--- a/admin/data/Posts.xlsx
+++ b/admin/data/Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\OneDrive\Dokumente\GitHub\theatertage\admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554B04CB-97AC-405A-AA4C-14D87A228297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65171495-16FB-490F-9B1E-CB30DADAF5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="35314" windowHeight="18720" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>Wer möchte nicht berühmt werden? Aber….</t>
   </si>
   <si>
-    <t>~Schülerzeitung GMG</t>
-  </si>
-  <si>
     <t>Das offizielle Mindestalter liegt eigentlich bei 13 Jahren, jedoch haben viele Kinder unter 13 schon Zugang zu TikTok. Der Großteil der TikTok-Nutzer ist unter 23 Jahren. Besonders diese jungen Zielgruppen bieten für TikTok großes Potential für digitales Marketing und damit Profit.</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Die Nutzung der App ist aus der Sicht von Experten aus weiteren Gründen problematisch. Nicht nur, weil TikTok sehr viele Daten über seine Nutzer sammelt, sondern auch, weil eine übermäßige Nutzung der Plattform zu massivem Suchtverhalten führen kann, welches den gesamten Alltag von Jugendlichen beherrschen kann.</t>
+  </si>
+  <si>
+    <t>Schülerzeitung GMG</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99764E3C-1248-44C0-80ED-9F1AB2E0971D}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -646,7 +646,7 @@
         <v>34</v>
       </c>
       <c r="S1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T1" t="s">
         <v>10</v>
@@ -684,43 +684,43 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>52</v>
-      </c>
-      <c r="W2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">

--- a/admin/data/Posts.xlsx
+++ b/admin/data/Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\OneDrive\Dokumente\GitHub\theatertage\admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65171495-16FB-490F-9B1E-CB30DADAF5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D232AC-1A9E-4D9E-89BA-486666A25104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="35314" windowHeight="18720" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>img1</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>Schülerzeitung GMG</t>
+  </si>
+  <si>
+    <t>1.jpeg</t>
+  </si>
+  <si>
+    <t>2.jpeg</t>
+  </si>
+  <si>
+    <t>3.jpeg</t>
+  </si>
+  <si>
+    <t>4.jpeg</t>
   </si>
 </sst>
 </file>
@@ -582,7 +594,7 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -731,16 +743,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>

--- a/admin/data/Posts.xlsx
+++ b/admin/data/Posts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\OneDrive\Dokumente\GitHub\theatertage\admin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\Documents\GitHub\theatertage\admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D232AC-1A9E-4D9E-89BA-486666A25104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF24390-D946-4B6D-A778-E13465E1DF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="35314" windowHeight="18720" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Newsletter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>img1</t>
   </si>
@@ -89,22 +89,10 @@
     <t>Dritter Test Artikel</t>
   </si>
   <si>
-    <t>Vierter Test Artikel</t>
-  </si>
-  <si>
-    <t>Fünfter Test Artikel</t>
-  </si>
-  <si>
     <t>summary 2</t>
   </si>
   <si>
     <t>summary 3</t>
-  </si>
-  <si>
-    <t>summary 4</t>
-  </si>
-  <si>
-    <t>summary 5</t>
   </si>
   <si>
     <t>head1</t>
@@ -259,7 +247,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,15 +582,15 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -622,16 +610,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -646,96 +634,96 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45314</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" t="s">
+      <c r="V2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" t="s">
+      <c r="W2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45315</v>
       </c>
@@ -743,28 +731,28 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
@@ -779,25 +767,25 @@
         <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45316</v>
       </c>
@@ -817,16 +805,16 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
@@ -841,149 +829,31 @@
         <v>9</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>45317</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" t="s">
-        <v>21</v>
-      </c>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>45318</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" t="s">
-        <v>22</v>
-      </c>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
     </row>
   </sheetData>

--- a/admin/data/Posts.xlsx
+++ b/admin/data/Posts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schar\Documents\GitHub\theatertage\admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF24390-D946-4B6D-A778-E13465E1DF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE13F14-240E-4BB8-950F-E9D0D016A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{256E3240-CDF5-4972-A2EE-7B5DB3DA5C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Newsletter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>img1</t>
   </si>
@@ -71,30 +71,6 @@
     <t>sum</t>
   </si>
   <si>
-    <t>i1</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>i4</t>
-  </si>
-  <si>
-    <t>Zweiter Test Artikel</t>
-  </si>
-  <si>
-    <t>Dritter Test Artikel</t>
-  </si>
-  <si>
-    <t>summary 2</t>
-  </si>
-  <si>
-    <t>summary 3</t>
-  </si>
-  <si>
     <t>head1</t>
   </si>
   <si>
@@ -107,18 +83,6 @@
     <t>head4</t>
   </si>
   <si>
-    <t>Mini-Headline1</t>
-  </si>
-  <si>
-    <t>Mini-Headline2</t>
-  </si>
-  <si>
-    <t>Mini-Headline3</t>
-  </si>
-  <si>
-    <t>Mini-Headline4</t>
-  </si>
-  <si>
     <t>author1</t>
   </si>
   <si>
@@ -131,76 +95,7 @@
     <t>author4</t>
   </si>
   <si>
-    <t>Anonym</t>
-  </si>
-  <si>
-    <t>1.jpg</t>
-  </si>
-  <si>
-    <t>2.png</t>
-  </si>
-  <si>
-    <t>3.webp</t>
-  </si>
-  <si>
-    <t>4.jpg</t>
-  </si>
-  <si>
-    <t>Wer nutzt TikTok?</t>
-  </si>
-  <si>
-    <t>TikTok - eine digitale Droge</t>
-  </si>
-  <si>
-    <t>Ist TikTok schädlich für unsere Gesellschaft?</t>
-  </si>
-  <si>
-    <t>Warum ist TikTok so beliebt?</t>
-  </si>
-  <si>
-    <t>Wer möchte nicht berühmt werden? Aber….</t>
-  </si>
-  <si>
-    <t>Das offizielle Mindestalter liegt eigentlich bei 13 Jahren, jedoch haben viele Kinder unter 13 schon Zugang zu TikTok. Der Großteil der TikTok-Nutzer ist unter 23 Jahren. Besonders diese jungen Zielgruppen bieten für TikTok großes Potential für digitales Marketing und damit Profit.</t>
-  </si>
-  <si>
-    <t>Seit 2018 ist TikTok weltweit die meistgedownloadete App. TikTok hat mehr als 2,6 Milliarden Downloads und ist somit die Nummer 1 im Bereich Unterhaltung. Aber wieso eigentlich? Ganz einfach: Ein kurzer Griff zum Handy, einmal auf das App-Logo getippt und schon bist du drin. TikTok macht das ziemlich raffiniert, denn nur jedes fünfte bis zehnte Video ist ein „Banger“, also ein Video, das dir besonders gefällt und dich glücklich macht. Alle Videos, die dazwischen kommen, sind uninteressant für dich, weshalb du sie skippst. Wenn du dann mal einen „Banger“ gesehen hast, bist du drin. Nun willst du immer und immer mehr Banger sehen, also skippst du immer mehr langweilige Videos und suchst nach Bangern. Diese Skipp-Videos sind für dich sozusagen eine Art Aufforderung, weiter zu scrollen. Bei den Bangern bekommst du dann ein Dopamine -High, was so viel bedeutet wie, dass Glücksbotenstoffe dein Hirn fluten. Dieses Scrollen wird damit zu einer Sucht, die funktioniert wie eine Spielsucht. Es ist der identische Mechanismus, den TikTok verwendet. TikTok-Nutzer können sehr schnell abhängig und süchtig werden, was TikTok ausnutzt. Abhängige weisen suchtähnliche Verhaltensweisen auf, indem sie ängstlich, nervös oder reizbar werden, wenn man ihnen den Zugang zur Plattform verwehrt. Selbst ohne Abhängigkeit verbringst du sehr viel Zeit auf der App und verschwendest somit Lebenszeit.</t>
-  </si>
-  <si>
-    <t>Mit TikTok kann man z.B. Musikclips von anderen ansehen oder selbst aufnehmen, bearbeiten und hochladen. Vor allem das Bearbeiten löst bei den meisten Nutzern viel Freude aus. Hier hast du eine große Auswahl an Spezialeffekten und Filtern, die du für deinem Video anwenden kannst.</t>
-  </si>
-  <si>
-    <t>Vor allem junge Mädchen möchten damit viele Follower generieren, weshalb sie sich manchmal sogar knapp bekleidet filmen oder provokante Tanzvideos veröffentlichen. Damit werden gerade Männer angesprochen, die den Mädchen dann oft folgen und sie kontaktieren. Die Mädchen fühlen sich geschmeichelt und unterschätzen die Gefahr dieser Kontakte. Und das tun sie alles nur, um Follower zu bekommen.</t>
-  </si>
-  <si>
     <t>author5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So wird beispielsweise die Kapazität deines Arbeitsgedächtnisses durch TikTok-Nutzern reduziert. Das bedeutet, dass man dadurch aktiv „verdummt“. Deshalb hat man oft keine Lust mehr, über einen längeren Zeitraum etwas anderes zu tun oder sich zu konzentrieren. Man kann/will z.B. Konversationen nicht mehr aufmerksam zuhören. Das alles funktioniert, weil die Nutzer durch TikTok kurzfristige positive Rückmeldungen bekommen, wie bei einer Art Belohnung. Dabei sind es im wirklichen Leben die langfristigen Belohnungen, die einen glücklich machen, z.B. mit der Familie etwas zu unternehmen. </t>
-  </si>
-  <si>
-    <t>Nicht nur die Art, wie TikTok seine User an sich bindet, kann schädlich sein, sondern auch, welcher Content auf den Nutzer zugeschnitten wird. Ein großer Nachteil ist zudem, dass bei süchtigen TikTok-Nutzern Depressionen, Angst und Stress auftreten können. Wenn man z.B. schon solche Tendenzen zeigt, werden Stimmungen wie Traurigkeit durch thematisch zugeschnittene Videos auf TikTok zusätzlich unterstützt. Damit ist TikTok nicht nur für die mentale Gesundheit des Einzelnen, sondern auch für uns als Gesellschaft eine große Gefahr.</t>
-  </si>
-  <si>
-    <t>Dass TikTok weiterreichende Auswirkungen auf unsere Jugend, unsere Psyche und unsere Gesellschaft hat, sollte dir spätestens jetzt bewusst sein. Was hältst du von TikTok? Schreib‘ uns deine Meinung: schuelerzeitung@gmg.amberg.de</t>
-  </si>
-  <si>
-    <t>Die Nutzung der App ist aus der Sicht von Experten aus weiteren Gründen problematisch. Nicht nur, weil TikTok sehr viele Daten über seine Nutzer sammelt, sondern auch, weil eine übermäßige Nutzung der Plattform zu massivem Suchtverhalten führen kann, welches den gesamten Alltag von Jugendlichen beherrschen kann.</t>
-  </si>
-  <si>
-    <t>Schülerzeitung GMG</t>
-  </si>
-  <si>
-    <t>1.jpeg</t>
-  </si>
-  <si>
-    <t>2.jpeg</t>
-  </si>
-  <si>
-    <t>3.jpeg</t>
-  </si>
-  <si>
-    <t>4.jpeg</t>
   </si>
 </sst>
 </file>
@@ -579,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99764E3C-1248-44C0-80ED-9F1AB2E0971D}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +485,7 @@
     <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -610,16 +505,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -634,226 +529,40 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="S1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="T1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45315</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45316</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
     </row>
   </sheetData>
